--- a/output/fit_clients/fit_round_327.xlsx
+++ b/output/fit_clients/fit_round_327.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2086872361.131886</v>
+        <v>2223514395.537594</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1063194954783396</v>
+        <v>0.08080814060836773</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03937583126487026</v>
+        <v>0.03111109849325697</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1043436187.895489</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2365896964.471562</v>
+        <v>2024286245.641505</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1403573776213373</v>
+        <v>0.1173183711404066</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04644530041241154</v>
+        <v>0.04900413463708878</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1182948578.96265</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3677413523.740748</v>
+        <v>5120465267.235287</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1395832048157241</v>
+        <v>0.1543823079290089</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02775189165255101</v>
+        <v>0.03597118012644349</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>117</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1838706753.212602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3621137953.528632</v>
+        <v>2611064432.094225</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1084425071791472</v>
+        <v>0.1086349639722644</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04024201521137399</v>
+        <v>0.03182747413303003</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>123</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1810569005.534584</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2103884553.556733</v>
+        <v>2873439984.284952</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1033821040567205</v>
+        <v>0.1276621064046362</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04043975413615793</v>
+        <v>0.04365193245593392</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>63</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1051942295.135477</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2903205052.748019</v>
+        <v>2612938872.482137</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06527369650177797</v>
+        <v>0.07455490922423634</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03543127468438553</v>
+        <v>0.04449789023375724</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>101</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1451602500.59976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3726249049.919806</v>
+        <v>3020736727.31445</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1522587772853772</v>
+        <v>0.218758509511626</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03129462114893213</v>
+        <v>0.02364697767784335</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>104</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1863124656.720798</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1456235858.081506</v>
+        <v>1721813593.068664</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1714585017016913</v>
+        <v>0.1213784999051769</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0324239778062936</v>
+        <v>0.03070113814372825</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>728118031.104582</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3602284529.296838</v>
+        <v>5242168875.126162</v>
       </c>
       <c r="F10" t="n">
-        <v>0.150571494901663</v>
+        <v>0.1560807523805188</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05337132759872799</v>
+        <v>0.04238597687843104</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>137</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1801142255.750984</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3485229251.575438</v>
+        <v>3966220876.944574</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1518771973799287</v>
+        <v>0.1744882949741486</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03695438084340485</v>
+        <v>0.04184847275469018</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>135</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1742614602.576784</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2393060995.342279</v>
+        <v>2729709369.007431</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1933051814678073</v>
+        <v>0.1342866811352421</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04219635597543257</v>
+        <v>0.03403675839346194</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>112</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1196530460.109563</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3889916698.821822</v>
+        <v>5112282887.733942</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07865623835468119</v>
+        <v>0.08334785055293488</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02076032430097115</v>
+        <v>0.02812479241940654</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>109</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1944958409.936179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2799702102.306168</v>
+        <v>2715472005.869076</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1515173991799874</v>
+        <v>0.1878386568441039</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03267490405968231</v>
+        <v>0.03267426070429155</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>105</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1399851100.099214</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1425665698.704923</v>
+        <v>1629723460.264017</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1033653042688527</v>
+        <v>0.1009948272709792</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03854658264135738</v>
+        <v>0.04630073644579651</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>712832918.0033944</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2117031427.892661</v>
+        <v>2449561181.340881</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0742781683050965</v>
+        <v>0.08333912516785727</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0476449582011599</v>
+        <v>0.04437131569714574</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>65</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1058515778.983806</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4412274377.271565</v>
+        <v>4572434512.737123</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1109171873982395</v>
+        <v>0.1650096888789796</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05095329598568869</v>
+        <v>0.03703479435077485</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>95</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2206137202.871095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3237121438.029257</v>
+        <v>3631732281.50727</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1811070144678492</v>
+        <v>0.1761408872865004</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03440112045607072</v>
+        <v>0.0316899300770947</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>107</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1618560732.088197</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1143564594.866687</v>
+        <v>889658799.7905002</v>
       </c>
       <c r="F19" t="n">
-        <v>0.170230868122431</v>
+        <v>0.1573427427358406</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02291577105182796</v>
+        <v>0.02249763535782241</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>571782361.6031953</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2131064045.982736</v>
+        <v>2342916144.679392</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1444491837907909</v>
+        <v>0.1469071213851095</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03171404622916044</v>
+        <v>0.02946790684631463</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1065532035.382433</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2282069659.045887</v>
+        <v>2593577741.414488</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06286554908442804</v>
+        <v>0.07562550254155334</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03429576291086022</v>
+        <v>0.04145559027737604</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>27</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1141034838.474334</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3735351059.021073</v>
+        <v>3679932532.47365</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09868617096318734</v>
+        <v>0.1346667124222043</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04091429258699929</v>
+        <v>0.03762102589224438</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>91</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1867675547.010519</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1212774212.429814</v>
+        <v>1515156622.095762</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1367643494043327</v>
+        <v>0.1545973405567331</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04159522086548726</v>
+        <v>0.05373128510875383</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>606387140.5444607</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4121219655.32239</v>
+        <v>2990849223.60045</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1015458837089489</v>
+        <v>0.1346686933108311</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03528227286127016</v>
+        <v>0.03745082405477621</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>95</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2060609787.509241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1259912097.795962</v>
+        <v>1317887876.530637</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0761734813707869</v>
+        <v>0.09306759531493659</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02375051720086015</v>
+        <v>0.02225958342558145</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>629956053.0812193</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1412059519.429354</v>
+        <v>1211288372.185446</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09876556706485458</v>
+        <v>0.09133314773745159</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03253078437986161</v>
+        <v>0.02396659846454402</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>706029832.625043</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3409902017.756815</v>
+        <v>3776941847.687491</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1457785028862475</v>
+        <v>0.1419957191212139</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02098902190955999</v>
+        <v>0.02184808899419388</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1704951048.372236</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3651557407.975386</v>
+        <v>3708250419.060983</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1418575843080558</v>
+        <v>0.10670181271272</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0402890945225263</v>
+        <v>0.03502636895577652</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>107</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1825778771.781108</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5737172281.069588</v>
+        <v>5603412381.701825</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1232597507175201</v>
+        <v>0.1182282438916319</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03426975471306254</v>
+        <v>0.03387605578050588</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>144</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2868586037.071663</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2246641746.335436</v>
+        <v>2171339873.036997</v>
       </c>
       <c r="F30" t="n">
-        <v>0.133258757220032</v>
+        <v>0.1133426562042966</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02893655596063728</v>
+        <v>0.03561739403179614</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1123320938.706455</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>981046838.8249727</v>
+        <v>1060633407.808493</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1026016637306425</v>
+        <v>0.09983193290556258</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04561464898540652</v>
+        <v>0.04460288427554786</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>490523422.4191449</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1301890845.746366</v>
+        <v>1230459248.55634</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1099573950061843</v>
+        <v>0.07691069805739938</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02835586313087489</v>
+        <v>0.02471005351908751</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>650945450.1960425</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2077647273.190626</v>
+        <v>2722738118.716288</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1888417796638006</v>
+        <v>0.1416230035015948</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04794689020788854</v>
+        <v>0.05667064395493433</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>98</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1038823710.779714</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1522023838.222258</v>
+        <v>973417825.9646984</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1141664819621971</v>
+        <v>0.07552436169465797</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0209486826579792</v>
+        <v>0.02238203093022575</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>761011871.4089438</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1227762253.199003</v>
+        <v>1033039060.458391</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09535559305801715</v>
+        <v>0.08271913220419395</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04463262374705752</v>
+        <v>0.04296833217049291</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>613881095.2439799</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3083405103.832457</v>
+        <v>2640784998.455829</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1473642507670262</v>
+        <v>0.1360170002538304</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01999588189002658</v>
+        <v>0.02085414936058248</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>81</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1541702527.164007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2053843874.778765</v>
+        <v>2758061124.132885</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07470691893072469</v>
+        <v>0.1008343234164857</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04209860421739434</v>
+        <v>0.03055807474300623</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>88</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1026921972.076515</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1988320426.352302</v>
+        <v>1767391975.798773</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1210140768855207</v>
+        <v>0.08507145663984361</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02931391481302954</v>
+        <v>0.03027136590060196</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>994160193.4585737</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1624128039.582244</v>
+        <v>2125587069.61787</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1767311995290696</v>
+        <v>0.1747579876245207</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02333376461465404</v>
+        <v>0.02756979264845205</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>812064071.3965583</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1384683900.47721</v>
+        <v>1152772510.389338</v>
       </c>
       <c r="F40" t="n">
-        <v>0.148909687279503</v>
+        <v>0.1463802891811429</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04903810844272925</v>
+        <v>0.04199898853564577</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>692341945.3149754</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2143392217.89327</v>
+        <v>2402711746.800834</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1433443344506423</v>
+        <v>0.1532317044002811</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03925256112474665</v>
+        <v>0.03442163285136748</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>82</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1071696169.105594</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2651786604.380692</v>
+        <v>3091915668.441415</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09715906008825885</v>
+        <v>0.07996019640273218</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03013777388154925</v>
+        <v>0.0416848004047675</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>107</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1325893238.653828</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2784674238.260506</v>
+        <v>2632791958.80631</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1328156045113903</v>
+        <v>0.1678320678858329</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01775395266190972</v>
+        <v>0.02111811782190043</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>117</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1392337139.17209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1422986940.848734</v>
+        <v>2091237575.705657</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0949728821848302</v>
+        <v>0.1024604036376491</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03267129226771406</v>
+        <v>0.03456948048847729</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>711493461.6333476</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1897105180.543261</v>
+        <v>2197498243.500916</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1704760375284208</v>
+        <v>0.1537855228904096</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04985589743078295</v>
+        <v>0.0344863436011665</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>948552570.775432</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5170708700.687554</v>
+        <v>5253209240.213881</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1680827350507566</v>
+        <v>0.1766555609877699</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04989437165514684</v>
+        <v>0.03717314552721299</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>116</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2585354386.907702</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3161366162.733788</v>
+        <v>4404500250.022208</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2006487761127733</v>
+        <v>0.1367419778033119</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04182156456690533</v>
+        <v>0.04040641979209369</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>87</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1580683032.97385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2893336340.89662</v>
+        <v>3323700658.000822</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08950153313885062</v>
+        <v>0.1038334024475701</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03193746973402629</v>
+        <v>0.03585837862119316</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>106</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1446668269.171142</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1692934717.037748</v>
+        <v>1462071456.999906</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1191980827311451</v>
+        <v>0.1511680872468568</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02998013847026434</v>
+        <v>0.03677248741012885</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>846467360.5564692</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3322045172.447876</v>
+        <v>3507782936.230835</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1595913031693801</v>
+        <v>0.1094036962539135</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05302400703055269</v>
+        <v>0.03655834308582057</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>111</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1661022623.168429</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1116062996.566493</v>
+        <v>1288481218.007576</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1672518581617858</v>
+        <v>0.1939220048465113</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03502726342410668</v>
+        <v>0.03812908954234478</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>558031563.4433608</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3229563429.316841</v>
+        <v>4516335329.822838</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08615026847902379</v>
+        <v>0.0890147084618567</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05860400133537141</v>
+        <v>0.05433056579425433</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>134</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1614781816.488745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3782040460.715754</v>
+        <v>3490057994.218189</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1294934571400916</v>
+        <v>0.1576635189438711</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02847614358442191</v>
+        <v>0.02323449547623226</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>93</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1891020208.814125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3491432336.203518</v>
+        <v>3042108353.037168</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1462168865553944</v>
+        <v>0.1259182002924308</v>
       </c>
       <c r="G54" t="n">
-        <v>0.050298290489295</v>
+        <v>0.052408655515483</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>106</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1745716192.241376</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4404953284.213446</v>
+        <v>3774310060.46558</v>
       </c>
       <c r="F55" t="n">
-        <v>0.145497200503045</v>
+        <v>0.1587111400923701</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02417836699706174</v>
+        <v>0.02563567965789749</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2202476634.916768</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1302001933.2211</v>
+        <v>1234266854.474465</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1080270869899913</v>
+        <v>0.1064873598258594</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03570987918249331</v>
+        <v>0.03905187325530394</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>651001038.1830504</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4091696117.889447</v>
+        <v>3953316685.520089</v>
       </c>
       <c r="F57" t="n">
-        <v>0.130825025725863</v>
+        <v>0.1455506455870553</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02210054361296596</v>
+        <v>0.02514646455889841</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>103</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2045848155.018491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1723054287.173698</v>
+        <v>1533275818.531763</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1458944571086864</v>
+        <v>0.1370034505070044</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03843388913852662</v>
+        <v>0.03036105977404113</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>861527154.3687265</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4438855130.705346</v>
+        <v>3808463862.578061</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09024233025574828</v>
+        <v>0.08072146625507949</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03536144701781014</v>
+        <v>0.04952879956076234</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>93</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2219427520.146865</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2579395422.100635</v>
+        <v>2854474471.191062</v>
       </c>
       <c r="F60" t="n">
-        <v>0.140700514539797</v>
+        <v>0.1803879355624543</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02297169348542746</v>
+        <v>0.03335877638575058</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>102</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1289697737.286815</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3176617735.908364</v>
+        <v>2935192070.019599</v>
       </c>
       <c r="F61" t="n">
-        <v>0.134737427388807</v>
+        <v>0.1464162305799552</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02535543778402396</v>
+        <v>0.02529438277069438</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>112</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1588308831.774734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1294186377.021611</v>
+        <v>1594339198.578473</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1446194971744358</v>
+        <v>0.1275157118066093</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04358182246504096</v>
+        <v>0.03653684370335437</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>647093140.7076432</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5013797478.821578</v>
+        <v>5202360782.822217</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06896629664856511</v>
+        <v>0.07624287160779518</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03651951956022217</v>
+        <v>0.03349067719331718</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>94</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2506898756.54843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3576580346.586063</v>
+        <v>4050110299.13219</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1333011734750726</v>
+        <v>0.1537772708659512</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03071882858266</v>
+        <v>0.0240763536770962</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>101</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1788290179.376845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4486344043.128852</v>
+        <v>4875047901.155029</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1699439583295874</v>
+        <v>0.159575354266048</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02562343125162127</v>
+        <v>0.02105388983862462</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>117</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2243172011.130008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4483674962.898155</v>
+        <v>4723442178.768242</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1250290100487572</v>
+        <v>0.1153047521908006</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03640769748758386</v>
+        <v>0.04016809565040225</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>95</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2241837480.952606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2648590657.795306</v>
+        <v>3032402973.474856</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06815668645471287</v>
+        <v>0.1020903738118615</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03441528448992968</v>
+        <v>0.04635720721848144</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>104</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1324295376.886077</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5709407135.806602</v>
+        <v>5443948907.529576</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1395917671972728</v>
+        <v>0.1601355422038246</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05071198306274908</v>
+        <v>0.04197299774286775</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>105</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2854703667.297627</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1644017238.035371</v>
+        <v>1854106362.069036</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1180506218344963</v>
+        <v>0.1260807558980959</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05234287339126106</v>
+        <v>0.04611497139245595</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>822008577.929576</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3288438051.554507</v>
+        <v>3416082484.491653</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06418194032227291</v>
+        <v>0.06214554308634832</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03313448754699291</v>
+        <v>0.04978061543331608</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>93</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1644219021.50446</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4348431582.913419</v>
+        <v>3716942482.03298</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1247265208577031</v>
+        <v>0.1634073026308382</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02059146780171531</v>
+        <v>0.03025828819696231</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>120</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2174215848.500227</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1840714259.576295</v>
+        <v>2077316130.317733</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08032341698063061</v>
+        <v>0.06914780510684375</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05305136197953077</v>
+        <v>0.03389164564489411</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>920357101.8375473</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2817952058.782341</v>
+        <v>2931273590.063985</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07286068600556343</v>
+        <v>0.09011588143518129</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05103621838812865</v>
+        <v>0.03804140133033442</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>126</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1408976042.055118</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3169939512.137828</v>
+        <v>3379288940.503915</v>
       </c>
       <c r="F74" t="n">
-        <v>0.163761477769581</v>
+        <v>0.1721784945442293</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02499796027146056</v>
+        <v>0.03449172614293725</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>111</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1584969806.803398</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1538967191.240223</v>
+        <v>2416524403.270969</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1292349355956738</v>
+        <v>0.1019586522547495</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03587729099494966</v>
+        <v>0.03547934052182534</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>769483602.999324</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5071249122.795288</v>
+        <v>5117934819.28028</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1006477637972557</v>
+        <v>0.1223579824535059</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0291770685325181</v>
+        <v>0.02643880415333443</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2535624591.052566</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1927943860.268613</v>
+        <v>1761848015.037611</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1545970530049969</v>
+        <v>0.1396342018387157</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0255567665320125</v>
+        <v>0.02788248760568015</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>963971980.9983436</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4806605117.014644</v>
+        <v>3798254908.433453</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1309562890917104</v>
+        <v>0.09510040771150437</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04564923612247332</v>
+        <v>0.03990135487041153</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>113</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2403302466.49648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1670114531.218152</v>
+        <v>1853407056.496775</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1637164744727493</v>
+        <v>0.115238003687938</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02613393598115375</v>
+        <v>0.0269062514810053</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>835057329.589817</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3393582839.028716</v>
+        <v>4581891056.411045</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07372645222709182</v>
+        <v>0.1013273490078301</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03405217526757664</v>
+        <v>0.03831502338419204</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>69</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1696791388.843383</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3778859658.70963</v>
+        <v>3269409771.287906</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1221208453022526</v>
+        <v>0.1152603819310072</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0237680651249481</v>
+        <v>0.03240561512420354</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>72</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1889429784.374951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4165248639.983585</v>
+        <v>3790463343.757149</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1617070739175915</v>
+        <v>0.2061848905606105</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02216256656865656</v>
+        <v>0.02083668554121361</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>116</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2082624350.539644</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1725129086.198576</v>
+        <v>1929636262.564528</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1314766935134402</v>
+        <v>0.1176383468530567</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04405250849616312</v>
+        <v>0.04108563245852725</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>862564494.2064582</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1617492613.036017</v>
+        <v>1888490530.659379</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1193714468266435</v>
+        <v>0.09534575753326517</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04272031663065001</v>
+        <v>0.04059266212301621</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>808746367.5901964</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3355362874.576207</v>
+        <v>2456988468.05536</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1506687235186526</v>
+        <v>0.129998947175618</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04145750624853681</v>
+        <v>0.05089638148057703</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>123</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1677681536.699713</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1863443834.501604</v>
+        <v>2598536720.223851</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1323658870185405</v>
+        <v>0.126651981218723</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02693845363593118</v>
+        <v>0.02015739897161493</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>44</v>
-      </c>
-      <c r="J86" t="n">
-        <v>931721925.8977873</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1425666840.087193</v>
+        <v>1108755836.660696</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1806000296411917</v>
+        <v>0.118188156352226</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03889117047589829</v>
+        <v>0.04424173183067826</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>712833533.4668596</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3243239524.665151</v>
+        <v>2577099630.69832</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1652590997690189</v>
+        <v>0.1209870685557815</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03696010492666885</v>
+        <v>0.03757071843982778</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>129</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1621619816.8197</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2556179240.563099</v>
+        <v>2292967363.562326</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1120138574748469</v>
+        <v>0.1506902555207122</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02604483251977902</v>
+        <v>0.03136351606905747</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>110</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1278089690.929962</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2120286111.132287</v>
+        <v>1651866552.118892</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1172747122802662</v>
+        <v>0.1066085153872166</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0476147984694869</v>
+        <v>0.05379326928535566</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1060143147.806287</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1378922576.397898</v>
+        <v>1675701249.443156</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1853704390118977</v>
+        <v>0.1403142199725765</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05446921448519881</v>
+        <v>0.04223310323643645</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>689461343.2816374</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2477214978.117884</v>
+        <v>1942454871.96438</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0977805175671608</v>
+        <v>0.1090862495310975</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04021117473935285</v>
+        <v>0.0459621862966566</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>88</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1238607471.302356</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4696180118.120987</v>
+        <v>4842046347.617142</v>
       </c>
       <c r="F93" t="n">
-        <v>0.11217589586304</v>
+        <v>0.09147010480191936</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03308791143797876</v>
+        <v>0.04988837257382185</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>103</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2348090014.647438</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1781472142.665645</v>
+        <v>1562700258.747278</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1555440483011224</v>
+        <v>0.1419847832804756</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03622624948287761</v>
+        <v>0.02739234702702275</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>890736041.2319953</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2303185864.033408</v>
+        <v>2846725483.867754</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09756438199048335</v>
+        <v>0.09686293168385471</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04762138667869065</v>
+        <v>0.04742180121879362</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>79</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1151592982.419078</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2189637782.767561</v>
+        <v>1703251953.825436</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1098932296493599</v>
+        <v>0.1092705431746802</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03559012894467847</v>
+        <v>0.04246828604428848</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1094818858.11932</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3510765518.583374</v>
+        <v>4901566904.85829</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1771982094617688</v>
+        <v>0.150289017753007</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02815533842107305</v>
+        <v>0.01966759117234177</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>105</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1755382776.329296</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2694717402.910912</v>
+        <v>2733541089.637931</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0932450162341916</v>
+        <v>0.09108649849927461</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02942151936964912</v>
+        <v>0.02278714921727452</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>89</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1347358665.435482</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2811815099.144278</v>
+        <v>2824430811.859715</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1057215792892169</v>
+        <v>0.1308766475042225</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02649972960887112</v>
+        <v>0.02861734788556185</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>102</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1405907521.868303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3334883640.831927</v>
+        <v>3932575715.307895</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1734821945784259</v>
+        <v>0.1673445258752819</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0227873604936825</v>
+        <v>0.02615595164144793</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>99</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1667441838.002831</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3380365089.783632</v>
+        <v>3599473973.933273</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1893133104148245</v>
+        <v>0.2185220507916877</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05502690964445944</v>
+        <v>0.05603998070849965</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>131</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1690182684.225292</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_327.xlsx
+++ b/output/fit_clients/fit_round_327.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2223514395.537594</v>
+        <v>2194467977.557721</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08080814060836773</v>
+        <v>0.09045855954506872</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03111109849325697</v>
+        <v>0.03501468232744864</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2024286245.641505</v>
+        <v>1778109488.588152</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1173183711404066</v>
+        <v>0.1313604764228082</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04900413463708878</v>
+        <v>0.03362726664861027</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5120465267.235287</v>
+        <v>4922206404.93426</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1543823079290089</v>
+        <v>0.1171243898883265</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03597118012644349</v>
+        <v>0.03553603489576641</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2611064432.094225</v>
+        <v>3717600117.939792</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1086349639722644</v>
+        <v>0.108693285542477</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03182747413303003</v>
+        <v>0.03732757425599694</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2873439984.284952</v>
+        <v>2797219850.675199</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1276621064046362</v>
+        <v>0.1394921337778763</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04365193245593392</v>
+        <v>0.0531774423573788</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2612938872.482137</v>
+        <v>2771567340.515971</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07455490922423634</v>
+        <v>0.07354656256606019</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04449789023375724</v>
+        <v>0.049027116984989</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3020736727.31445</v>
+        <v>2904288391.314194</v>
       </c>
       <c r="F8" t="n">
-        <v>0.218758509511626</v>
+        <v>0.2101085499310256</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02364697767784335</v>
+        <v>0.03346477570295127</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1721813593.068664</v>
+        <v>1837722503.700296</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1213784999051769</v>
+        <v>0.1222546829724287</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03070113814372825</v>
+        <v>0.03560143642155988</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5242168875.126162</v>
+        <v>3789118551.967226</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1560807523805188</v>
+        <v>0.1726159231396551</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04238597687843104</v>
+        <v>0.04805284598693599</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,16 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3966220876.944574</v>
+        <v>3914619015.316914</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1744882949741486</v>
+        <v>0.1323856070112117</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04184847275469018</v>
+        <v>0.03510198872665701</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2729709369.007431</v>
+        <v>2895537130.191177</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1342866811352421</v>
+        <v>0.1210101818207944</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03403675839346194</v>
+        <v>0.04571398766143521</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5112282887.733942</v>
+        <v>4786021651.188512</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08334785055293488</v>
+        <v>0.09088350921249</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02812479241940654</v>
+        <v>0.02614779614566436</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2715472005.869076</v>
+        <v>2856582103.140602</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1878386568441039</v>
+        <v>0.1636767734226019</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03267426070429155</v>
+        <v>0.04020533929195888</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1629723460.264017</v>
+        <v>1363141017.976496</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1009948272709792</v>
+        <v>0.09355470315775369</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04630073644579651</v>
+        <v>0.03854200169373358</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2449561181.340881</v>
+        <v>1988286987.524694</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08333912516785727</v>
+        <v>0.09791952067731428</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04437131569714574</v>
+        <v>0.03352423429334087</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4572434512.737123</v>
+        <v>4592864480.871136</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1650096888789796</v>
+        <v>0.1067669586251555</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03703479435077485</v>
+        <v>0.05189709806704268</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3631732281.50727</v>
+        <v>3143069697.094377</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1761408872865004</v>
+        <v>0.1300373497944874</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0316899300770947</v>
+        <v>0.02721610196811812</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>889658799.7905002</v>
+        <v>1022912084.696975</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1573427427358406</v>
+        <v>0.1887731520342741</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02249763535782241</v>
+        <v>0.0182220640099171</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2342916144.679392</v>
+        <v>1749474330.981577</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1469071213851095</v>
+        <v>0.121141933217696</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02946790684631463</v>
+        <v>0.02563031227160138</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2593577741.414488</v>
+        <v>2618730128.153321</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07562550254155334</v>
+        <v>0.07568743654265295</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04145559027737604</v>
+        <v>0.03451095312877232</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3679932532.47365</v>
+        <v>2706980352.383533</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1346667124222043</v>
+        <v>0.08772190705382069</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03762102589224438</v>
+        <v>0.05164014633441708</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1515156622.095762</v>
+        <v>1152841430.765515</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1545973405567331</v>
+        <v>0.1585690300296965</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05373128510875383</v>
+        <v>0.04144657352357849</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2990849223.60045</v>
+        <v>3834854728.594642</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1346686933108311</v>
+        <v>0.1114624359139399</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03745082405477621</v>
+        <v>0.02903193588199778</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1317887876.530637</v>
+        <v>999989535.8560215</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09306759531493659</v>
+        <v>0.1132834683104617</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02225958342558145</v>
+        <v>0.03076427607286983</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1211288372.185446</v>
+        <v>1052267170.777121</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09133314773745159</v>
+        <v>0.1195374848721431</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02396659846454402</v>
+        <v>0.03771880096242571</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3776941847.687491</v>
+        <v>4326372036.510801</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1419957191212139</v>
+        <v>0.1382458570597723</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02184808899419388</v>
+        <v>0.02692135105494475</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3708250419.060983</v>
+        <v>2662050996.887696</v>
       </c>
       <c r="F28" t="n">
-        <v>0.10670181271272</v>
+        <v>0.1411330295813142</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03502636895577652</v>
+        <v>0.04720449859597703</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5603412381.701825</v>
+        <v>4425025365.474839</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1182282438916319</v>
+        <v>0.09667964154230189</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03387605578050588</v>
+        <v>0.0422548921091804</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2171339873.036997</v>
+        <v>1987659608.348814</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1133426562042966</v>
+        <v>0.1066985409611294</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03561739403179614</v>
+        <v>0.03662613641975557</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1060633407.808493</v>
+        <v>1445067233.346646</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09983193290556258</v>
+        <v>0.08226395205257833</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04460288427554786</v>
+        <v>0.04493707414533368</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1230459248.55634</v>
+        <v>1626293916.959723</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07691069805739938</v>
+        <v>0.07984532239912111</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02471005351908751</v>
+        <v>0.03759370547392425</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2722738118.716288</v>
+        <v>2139595844.442978</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1416230035015948</v>
+        <v>0.187416186630718</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05667064395493433</v>
+        <v>0.04269142491300815</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>973417825.9646984</v>
+        <v>970191715.7648833</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07552436169465797</v>
+        <v>0.09685774883869623</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02238203093022575</v>
+        <v>0.01894248831134585</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1033039060.458391</v>
+        <v>1239487258.920927</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08271913220419395</v>
+        <v>0.1063177183486772</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04296833217049291</v>
+        <v>0.03409303711995471</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2640784998.455829</v>
+        <v>2710987726.954669</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1360170002538304</v>
+        <v>0.1717405234906384</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02085414936058248</v>
+        <v>0.02093591841844669</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2758061124.132885</v>
+        <v>1920236527.919588</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1008343234164857</v>
+        <v>0.08918450991781149</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03055807474300623</v>
+        <v>0.02924518891239778</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1767391975.798773</v>
+        <v>2001788657.600708</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08507145663984361</v>
+        <v>0.1087919112478486</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03027136590060196</v>
+        <v>0.03774916208789684</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2125587069.61787</v>
+        <v>1759743891.856461</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1747579876245207</v>
+        <v>0.1673561515779</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02756979264845205</v>
+        <v>0.02604666588060362</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1152772510.389338</v>
+        <v>1609172381.472282</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1463802891811429</v>
+        <v>0.1025383303719637</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04199898853564577</v>
+        <v>0.05961573832887738</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2402711746.800834</v>
+        <v>2800672533.3167</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1532317044002811</v>
+        <v>0.1460177910911102</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03442163285136748</v>
+        <v>0.03625850238986948</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3091915668.441415</v>
+        <v>3247715372.453194</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07996019640273218</v>
+        <v>0.09197860273990399</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0416848004047675</v>
+        <v>0.04497106351580385</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2632791958.80631</v>
+        <v>2570806946.644878</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1678320678858329</v>
+        <v>0.1998753507012154</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02111811782190043</v>
+        <v>0.01564654491592476</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2091237575.705657</v>
+        <v>1816316031.47962</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1024604036376491</v>
+        <v>0.08168266335920944</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03456948048847729</v>
+        <v>0.03668928376083742</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2197498243.500916</v>
+        <v>1987539740.148754</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1537855228904096</v>
+        <v>0.170725726916732</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0344863436011665</v>
+        <v>0.05323205070968934</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5253209240.213881</v>
+        <v>3811512175.466539</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1766555609877699</v>
+        <v>0.1190492284869892</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03717314552721299</v>
+        <v>0.05626696323587209</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4404500250.022208</v>
+        <v>4186184574.200137</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1367419778033119</v>
+        <v>0.1260070816066749</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04040641979209369</v>
+        <v>0.05330241131290935</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3323700658.000822</v>
+        <v>4095153627.272374</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1038334024475701</v>
+        <v>0.07852708681071059</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03585837862119316</v>
+        <v>0.03252247558856709</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1462071456.999906</v>
+        <v>1925317330.589593</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1511680872468568</v>
+        <v>0.1524507331412986</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03677248741012885</v>
+        <v>0.0393676926683809</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3507782936.230835</v>
+        <v>3785566006.52383</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1094036962539135</v>
+        <v>0.1594448309570071</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03655834308582057</v>
+        <v>0.03492582139321451</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1288481218.007576</v>
+        <v>1389440665.839871</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1939220048465113</v>
+        <v>0.1233532968517592</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03812908954234478</v>
+        <v>0.03425736367956818</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4516335329.822838</v>
+        <v>4369128377.949132</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0890147084618567</v>
+        <v>0.09435566692900425</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05433056579425433</v>
+        <v>0.05696021554894688</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3490057994.218189</v>
+        <v>2887534882.16966</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1576635189438711</v>
+        <v>0.1239228383016613</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02323449547623226</v>
+        <v>0.02479053456264147</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3042108353.037168</v>
+        <v>4622474047.110945</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1259182002924308</v>
+        <v>0.1406636666017587</v>
       </c>
       <c r="G54" t="n">
-        <v>0.052408655515483</v>
+        <v>0.04946902877914476</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3774310060.46558</v>
+        <v>3640859298.584035</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1587111400923701</v>
+        <v>0.1429441298219227</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02563567965789749</v>
+        <v>0.03123125368150757</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1234266854.474465</v>
+        <v>1432204960.32114</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1064873598258594</v>
+        <v>0.1267883376568291</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03905187325530394</v>
+        <v>0.04820477617208528</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3953316685.520089</v>
+        <v>2844591306.195332</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1455506455870553</v>
+        <v>0.1765586932806451</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02514646455889841</v>
+        <v>0.02072111682976076</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1533275818.531763</v>
+        <v>1528341344.416683</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1370034505070044</v>
+        <v>0.1591118066411981</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03036105977404113</v>
+        <v>0.03085610464650505</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3808463862.578061</v>
+        <v>4335013414.2349</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08072146625507949</v>
+        <v>0.09939744876198479</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04952879956076234</v>
+        <v>0.03250826484340289</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2854474471.191062</v>
+        <v>2703349627.820324</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1803879355624543</v>
+        <v>0.1790958665624474</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03335877638575058</v>
+        <v>0.02253606295166417</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2935192070.019599</v>
+        <v>2318961945.731242</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1464162305799552</v>
+        <v>0.1179987106888682</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02529438277069438</v>
+        <v>0.02710738362206837</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1594339198.578473</v>
+        <v>1538379332.290758</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1275157118066093</v>
+        <v>0.1661189429475505</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03653684370335437</v>
+        <v>0.03474108333076952</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5202360782.822217</v>
+        <v>5310506749.886382</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07624287160779518</v>
+        <v>0.06516363319646259</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03349067719331718</v>
+        <v>0.04644764672825866</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4050110299.13219</v>
+        <v>4422330402.893187</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1537772708659512</v>
+        <v>0.1917517470071222</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0240763536770962</v>
+        <v>0.0217870385015708</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4875047901.155029</v>
+        <v>4054159426.610173</v>
       </c>
       <c r="F65" t="n">
-        <v>0.159575354266048</v>
+        <v>0.1698073830161654</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02105388983862462</v>
+        <v>0.02791242409488648</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4723442178.768242</v>
+        <v>4513445265.331843</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1153047521908006</v>
+        <v>0.1439924136749891</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04016809565040225</v>
+        <v>0.03145082512719465</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3032402973.474856</v>
+        <v>3328749992.447093</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1020903738118615</v>
+        <v>0.09085029812434252</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04635720721848144</v>
+        <v>0.03679172303581585</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5443948907.529576</v>
+        <v>4287437318.045877</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1601355422038246</v>
+        <v>0.09696793112610749</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04197299774286775</v>
+        <v>0.03533939916201179</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1854106362.069036</v>
+        <v>2314572543.040873</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1260807558980959</v>
+        <v>0.1663599399340265</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04611497139245595</v>
+        <v>0.04921528339678866</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3416082484.491653</v>
+        <v>2398101844.283996</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06214554308634832</v>
+        <v>0.07029498154379892</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04978061543331608</v>
+        <v>0.04454524934597989</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3716942482.03298</v>
+        <v>4191333263.63472</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1634073026308382</v>
+        <v>0.1467227454963521</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03025828819696231</v>
+        <v>0.02192517337683649</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2077316130.317733</v>
+        <v>2032173968.003888</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06914780510684375</v>
+        <v>0.1070870019219015</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03389164564489411</v>
+        <v>0.0436977089205839</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2931273590.063985</v>
+        <v>2797024227.25503</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09011588143518129</v>
+        <v>0.06900382566690026</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03804140133033442</v>
+        <v>0.04641945488457872</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3379288940.503915</v>
+        <v>2454187464.872041</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1721784945442293</v>
+        <v>0.1225023526364754</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03449172614293725</v>
+        <v>0.03153766099696916</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2416524403.270969</v>
+        <v>2182555618.520133</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1019586522547495</v>
+        <v>0.1514805448932733</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03547934052182534</v>
+        <v>0.02544620070039807</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5117934819.28028</v>
+        <v>3794633032.65665</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1223579824535059</v>
+        <v>0.07600321192093952</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02643880415333443</v>
+        <v>0.02285224683924265</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1761848015.037611</v>
+        <v>1959812313.467187</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1396342018387157</v>
+        <v>0.1467611777804946</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02788248760568015</v>
+        <v>0.0266249707053802</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3798254908.433453</v>
+        <v>3319179937.165712</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09510040771150437</v>
+        <v>0.1343382420559008</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03990135487041153</v>
+        <v>0.04930955779433431</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1853407056.496775</v>
+        <v>1243085636.872452</v>
       </c>
       <c r="F79" t="n">
-        <v>0.115238003687938</v>
+        <v>0.1607301986781731</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0269062514810053</v>
+        <v>0.0363195369315706</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4581891056.411045</v>
+        <v>4238444836.594473</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1013273490078301</v>
+        <v>0.08749735467316828</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03831502338419204</v>
+        <v>0.03786124068398181</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3269409771.287906</v>
+        <v>3148197961.224411</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1152603819310072</v>
+        <v>0.1174484826146833</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03240561512420354</v>
+        <v>0.01992621130505551</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3790463343.757149</v>
+        <v>3796937764.901378</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2061848905606105</v>
+        <v>0.1789283896624189</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02083668554121361</v>
+        <v>0.02386768843269048</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1929636262.564528</v>
+        <v>2234299273.828743</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1176383468530567</v>
+        <v>0.153018934862558</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04108563245852725</v>
+        <v>0.03196099656882381</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1888490530.659379</v>
+        <v>1604970796.487143</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09534575753326517</v>
+        <v>0.09550161220455103</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04059266212301621</v>
+        <v>0.04030505998695873</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2456988468.05536</v>
+        <v>2896278426.064784</v>
       </c>
       <c r="F85" t="n">
-        <v>0.129998947175618</v>
+        <v>0.1189627846581272</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05089638148057703</v>
+        <v>0.04121854968180444</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2598536720.223851</v>
+        <v>1807339503.455572</v>
       </c>
       <c r="F86" t="n">
-        <v>0.126651981218723</v>
+        <v>0.1652694369992617</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02015739897161493</v>
+        <v>0.02748287772618958</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1108755836.660696</v>
+        <v>1376039373.50349</v>
       </c>
       <c r="F87" t="n">
-        <v>0.118188156352226</v>
+        <v>0.1292544958397729</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04424173183067826</v>
+        <v>0.04247149080145973</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2577099630.69832</v>
+        <v>3191583335.167445</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1209870685557815</v>
+        <v>0.1643105123901419</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03757071843982778</v>
+        <v>0.03716878729707154</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2292967363.562326</v>
+        <v>2142487965.323797</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1506902555207122</v>
+        <v>0.1482907247507408</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03136351606905747</v>
+        <v>0.03309203965070268</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1651866552.118892</v>
+        <v>1345940474.88015</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1066085153872166</v>
+        <v>0.1128930561623046</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05379326928535566</v>
+        <v>0.03530356187664341</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,16 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1675701249.443156</v>
+        <v>1786462096.188468</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1403142199725765</v>
+        <v>0.1554344525410354</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04223310323643645</v>
+        <v>0.04999872130971883</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1942454871.96438</v>
+        <v>2803358360.569762</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1090862495310975</v>
+        <v>0.07732170203671589</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0459621862966566</v>
+        <v>0.03971865432565248</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4842046347.617142</v>
+        <v>4349891737.0322</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09147010480191936</v>
+        <v>0.1188290082449344</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04988837257382185</v>
+        <v>0.04669351241797377</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1562700258.747278</v>
+        <v>2199057363.272924</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1419847832804756</v>
+        <v>0.1299644457240086</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02739234702702275</v>
+        <v>0.0378111530634302</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2846725483.867754</v>
+        <v>2808073350.640678</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09686293168385471</v>
+        <v>0.1330053976929279</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04742180121879362</v>
+        <v>0.05188299845581972</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1703251953.825436</v>
+        <v>2208552687.04896</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1092705431746802</v>
+        <v>0.1291190814956541</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04246828604428848</v>
+        <v>0.04523115293238737</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4901566904.85829</v>
+        <v>4904728403.645967</v>
       </c>
       <c r="F97" t="n">
-        <v>0.150289017753007</v>
+        <v>0.1317636153488955</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01966759117234177</v>
+        <v>0.02212201060362618</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2733541089.637931</v>
+        <v>2568606919.10261</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09108649849927461</v>
+        <v>0.1012989360494989</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02278714921727452</v>
+        <v>0.02516561449710832</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2824430811.859715</v>
+        <v>2646858929.945034</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1308766475042225</v>
+        <v>0.1461521648580209</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02861734788556185</v>
+        <v>0.03099976128089845</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3932575715.307895</v>
+        <v>4781193563.095304</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1673445258752819</v>
+        <v>0.1754494653278325</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02615595164144793</v>
+        <v>0.01756651797239143</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3599473973.933273</v>
+        <v>3393217451.81906</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2185220507916877</v>
+        <v>0.1836902855136629</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05603998070849965</v>
+        <v>0.04001486646906007</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_327.xlsx
+++ b/output/fit_clients/fit_round_327.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2194467977.557721</v>
+        <v>1805626179.158877</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09045855954506872</v>
+        <v>0.08969381649114506</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03501468232744864</v>
+        <v>0.04203705668155025</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1778109488.588152</v>
+        <v>1760654034.811232</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1313604764228082</v>
+        <v>0.1435923951184069</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03362726664861027</v>
+        <v>0.04914848986478081</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4922206404.93426</v>
+        <v>3359097206.346773</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1171243898883265</v>
+        <v>0.1458057286906962</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03553603489576641</v>
+        <v>0.02599246745500941</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>170</v>
+      </c>
+      <c r="J4" t="n">
+        <v>325</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3717600117.939792</v>
+        <v>3048471020.065935</v>
       </c>
       <c r="F5" t="n">
-        <v>0.108693285542477</v>
+        <v>0.09974013494703364</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03732757425599694</v>
+        <v>0.04439298418173483</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>131</v>
+      </c>
+      <c r="J5" t="n">
+        <v>325</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2797219850.675199</v>
+        <v>1828360260.327867</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1394921337778763</v>
+        <v>0.1240711903434791</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0531774423573788</v>
+        <v>0.0504869326944253</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2771567340.515971</v>
+        <v>2176803353.498288</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07354656256606019</v>
+        <v>0.08903179310983389</v>
       </c>
       <c r="G7" t="n">
-        <v>0.049027116984989</v>
+        <v>0.03438767380236058</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +711,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2904288391.314194</v>
+        <v>3685262314.474314</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2101085499310256</v>
+        <v>0.2190892596255654</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03346477570295127</v>
+        <v>0.02333209182619937</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>87</v>
+      </c>
+      <c r="J8" t="n">
+        <v>327</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1837722503.700296</v>
+        <v>1411177287.334358</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1222546829724287</v>
+        <v>0.1827131601868701</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03560143642155988</v>
+        <v>0.02802263206637175</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +781,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3789118551.967226</v>
+        <v>5906941441.006537</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1726159231396551</v>
+        <v>0.1834294036538696</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04805284598693599</v>
+        <v>0.04149916600873538</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>283</v>
+      </c>
+      <c r="J10" t="n">
+        <v>326</v>
+      </c>
+      <c r="K10" t="n">
+        <v>71.6285881455308</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3914619015.316914</v>
+        <v>4268861521.753054</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1323856070112117</v>
+        <v>0.1379113196464407</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03510198872665701</v>
+        <v>0.04222265523027875</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>132</v>
+      </c>
+      <c r="J11" t="n">
+        <v>327</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +853,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2895537130.191177</v>
+        <v>2747142398.531079</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1210101818207944</v>
+        <v>0.1264455210435854</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04571398766143521</v>
+        <v>0.05277979470080867</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +882,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4786021651.188512</v>
+        <v>3862116916.491543</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09088350921249</v>
+        <v>0.08205882481320588</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02614779614566436</v>
+        <v>0.02842146740928659</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>170</v>
+      </c>
+      <c r="J13" t="n">
+        <v>326</v>
+      </c>
+      <c r="K13" t="n">
+        <v>63.77980609388366</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +925,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2856582103.140602</v>
+        <v>2872415823.995012</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1636767734226019</v>
+        <v>0.1535525732970073</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04020533929195888</v>
+        <v>0.04345886572368689</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>67</v>
+      </c>
+      <c r="J14" t="n">
+        <v>325</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +960,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1363141017.976496</v>
+        <v>1646754178.698307</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09355470315775369</v>
+        <v>0.09607881090759191</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03854200169373358</v>
+        <v>0.03208126254684515</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1988286987.524694</v>
+        <v>2794994257.784814</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09791952067731428</v>
+        <v>0.1031395394304059</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03352423429334087</v>
+        <v>0.04769197797186506</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1024,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4592864480.871136</v>
+        <v>3521379694.638541</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1067669586251555</v>
+        <v>0.1481387968730616</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05189709806704268</v>
+        <v>0.0493019433590235</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>153</v>
+      </c>
+      <c r="J17" t="n">
+        <v>327</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1059,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3143069697.094377</v>
+        <v>2638166217.042388</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1300373497944874</v>
+        <v>0.1768432086724729</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02721610196811812</v>
+        <v>0.0338654539822115</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>81</v>
+      </c>
+      <c r="J18" t="n">
+        <v>324</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1022912084.696975</v>
+        <v>1247929649.278147</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1887731520342741</v>
+        <v>0.1736080076038381</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0182220640099171</v>
+        <v>0.02075804184003614</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1135,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1749474330.981577</v>
+        <v>2671121089.840228</v>
       </c>
       <c r="F20" t="n">
-        <v>0.121141933217696</v>
+        <v>0.1255978688062325</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02563031227160138</v>
+        <v>0.02601783573559283</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2618730128.153321</v>
+        <v>2342209873.735086</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07568743654265295</v>
+        <v>0.0854945506243978</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03451095312877232</v>
+        <v>0.03509960332916513</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1199,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2706980352.383533</v>
+        <v>4021317197.108909</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08772190705382069</v>
+        <v>0.09750709758565386</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05164014633441708</v>
+        <v>0.05267403864860667</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>89</v>
+      </c>
+      <c r="J22" t="n">
+        <v>327</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1234,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1152841430.765515</v>
+        <v>993868779.7537261</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1585690300296965</v>
+        <v>0.1386000563546788</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04144657352357849</v>
+        <v>0.05434848082742562</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1275,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3834854728.594642</v>
+        <v>4119009956.535203</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1114624359139399</v>
+        <v>0.1085655419352398</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02903193588199778</v>
+        <v>0.03667695149428968</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>96</v>
+      </c>
+      <c r="J24" t="n">
+        <v>327</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1304,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>999989535.8560215</v>
+        <v>986313298.3884491</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1132834683104617</v>
+        <v>0.1101750822836244</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03076427607286983</v>
+        <v>0.02643043632737165</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1339,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1052267170.777121</v>
+        <v>1136812699.628747</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1195374848721431</v>
+        <v>0.1022523876097142</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03771880096242571</v>
+        <v>0.02568530741442338</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1380,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4326372036.510801</v>
+        <v>4534484653.07431</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1382458570597723</v>
+        <v>0.1039752398925151</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02692135105494475</v>
+        <v>0.02336356086109229</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>135</v>
+      </c>
+      <c r="J27" t="n">
+        <v>326</v>
+      </c>
+      <c r="K27" t="n">
+        <v>72.2554395411991</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1411,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2662050996.887696</v>
+        <v>3578333868.484761</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1411330295813142</v>
+        <v>0.1408097752540054</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04720449859597703</v>
+        <v>0.03662788263066187</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>70</v>
+      </c>
+      <c r="J28" t="n">
+        <v>327</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1446,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4425025365.474839</v>
+        <v>3668884678.42695</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09667964154230189</v>
+        <v>0.1155097466937515</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0422548921091804</v>
+        <v>0.035023699596778</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>299</v>
+      </c>
+      <c r="J29" t="n">
+        <v>327</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1481,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1987659608.348814</v>
+        <v>2294673758.147408</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1066985409611294</v>
+        <v>0.09174737319774524</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03662613641975557</v>
+        <v>0.03332979209982468</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1516,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1445067233.346646</v>
+        <v>1342643768.475756</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08226395205257833</v>
+        <v>0.107017600357685</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04493707414533368</v>
+        <v>0.03662721320042377</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1551,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1626293916.959723</v>
+        <v>1500238196.55491</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07984532239912111</v>
+        <v>0.1126849271279791</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03759370547392425</v>
+        <v>0.03543678664940252</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1586,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2139595844.442978</v>
+        <v>2894211789.702406</v>
       </c>
       <c r="F33" t="n">
-        <v>0.187416186630718</v>
+        <v>0.2063881844342557</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04269142491300815</v>
+        <v>0.04693784284081379</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1627,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>970191715.7648833</v>
+        <v>1220534575.181267</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09685774883869623</v>
+        <v>0.1106278524322168</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01894248831134585</v>
+        <v>0.02375403603991604</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1656,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1239487258.920927</v>
+        <v>867335208.4382818</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1063177183486772</v>
+        <v>0.08358642465077616</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03409303711995471</v>
+        <v>0.02984779074250312</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1697,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2710987726.954669</v>
+        <v>2773872374.223735</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1717405234906384</v>
+        <v>0.1386723067330198</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02093591841844669</v>
+        <v>0.02870506803408702</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1732,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1920236527.919588</v>
+        <v>1973920902.49826</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08918450991781149</v>
+        <v>0.06870687064153565</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02924518891239778</v>
+        <v>0.03593910012287756</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1761,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2001788657.600708</v>
+        <v>1958328219.147429</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1087919112478486</v>
+        <v>0.1186282398903613</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03774916208789684</v>
+        <v>0.03431232943940817</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1796,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1759743891.856461</v>
+        <v>1398574415.168461</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1673561515779</v>
+        <v>0.1430131510954368</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02604666588060362</v>
+        <v>0.03010249865792671</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1831,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1609172381.472282</v>
+        <v>1574582173.928953</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1025383303719637</v>
+        <v>0.1049442330100243</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05961573832887738</v>
+        <v>0.050894966520563</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1872,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2800672533.3167</v>
+        <v>1807499286.817342</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1460177910911102</v>
+        <v>0.1524321018377432</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03625850238986948</v>
+        <v>0.03790411817523294</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1901,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3247715372.453194</v>
+        <v>3612640809.774204</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09197860273990399</v>
+        <v>0.1204172748265743</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04497106351580385</v>
+        <v>0.03836778007244044</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>137</v>
+      </c>
+      <c r="J42" t="n">
+        <v>326</v>
+      </c>
+      <c r="K42" t="n">
+        <v>65.09243125941904</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1944,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2570806946.644878</v>
+        <v>2528706478.385674</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1998753507012154</v>
+        <v>0.1757331411357091</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01564654491592476</v>
+        <v>0.02170586238033742</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1816316031.47962</v>
+        <v>2208355850.861928</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08168266335920944</v>
+        <v>0.07790963782908686</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03668928376083742</v>
+        <v>0.03589771032340263</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1987539740.148754</v>
+        <v>1700967126.763779</v>
       </c>
       <c r="F45" t="n">
-        <v>0.170725726916732</v>
+        <v>0.1590200842605691</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05323205070968934</v>
+        <v>0.03880905554079318</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2043,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3811512175.466539</v>
+        <v>4086547909.505095</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1190492284869892</v>
+        <v>0.1684334473316726</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05626696323587209</v>
+        <v>0.04634584828055083</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>195</v>
+      </c>
+      <c r="J46" t="n">
+        <v>327</v>
+      </c>
+      <c r="K46" t="n">
+        <v>73.90336528968427</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2086,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4186184574.200137</v>
+        <v>4468527799.874244</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1260070816066749</v>
+        <v>0.195486212720103</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05330241131290935</v>
+        <v>0.04613481247090537</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>146</v>
+      </c>
+      <c r="J47" t="n">
+        <v>326</v>
+      </c>
+      <c r="K47" t="n">
+        <v>63.83132323967889</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2117,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4095153627.272374</v>
+        <v>3351362064.002718</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07852708681071059</v>
+        <v>0.07202551461887877</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03252247558856709</v>
+        <v>0.024103192491803</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>163</v>
+      </c>
+      <c r="J48" t="n">
+        <v>325</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2158,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1925317330.589593</v>
+        <v>1451518801.004655</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1524507331412986</v>
+        <v>0.1771116325276172</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0393676926683809</v>
+        <v>0.03180118633745908</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3785566006.52383</v>
+        <v>3852230812.201089</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1594448309570071</v>
+        <v>0.1458655248683408</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03492582139321451</v>
+        <v>0.05228550934833683</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>106</v>
+      </c>
+      <c r="J50" t="n">
+        <v>327</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1389440665.839871</v>
+        <v>1059387370.866532</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1233532968517592</v>
+        <v>0.1513198292483599</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03425736367956818</v>
+        <v>0.04944311920570323</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2257,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4369128377.949132</v>
+        <v>4259619043.176784</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09435566692900425</v>
+        <v>0.1021621905795844</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05696021554894688</v>
+        <v>0.05148895841789079</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>197</v>
+      </c>
+      <c r="J52" t="n">
+        <v>327</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2292,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2887534882.16966</v>
+        <v>3431307639.410236</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1239228383016613</v>
+        <v>0.1497369888037354</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02479053456264147</v>
+        <v>0.03252164504441556</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>47</v>
+      </c>
+      <c r="J53" t="n">
+        <v>321</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2333,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4622474047.110945</v>
+        <v>3960409694.414114</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1406636666017587</v>
+        <v>0.1698922829567099</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04946902877914476</v>
+        <v>0.04413679232948425</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>172</v>
+      </c>
+      <c r="J54" t="n">
+        <v>326</v>
+      </c>
+      <c r="K54" t="n">
+        <v>69.0652725367631</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2364,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3640859298.584035</v>
+        <v>4698059596.471552</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1429441298219227</v>
+        <v>0.1370270240544047</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03123125368150757</v>
+        <v>0.02153426675350211</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>153</v>
+      </c>
+      <c r="J55" t="n">
+        <v>327</v>
+      </c>
+      <c r="K55" t="n">
+        <v>75.19599829215714</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2407,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1432204960.32114</v>
+        <v>1338483415.568695</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1267883376568291</v>
+        <v>0.1110935425902943</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04820477617208528</v>
+        <v>0.04693560100493518</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2442,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2844591306.195332</v>
+        <v>2882700641.029119</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1765586932806451</v>
+        <v>0.1151576893262377</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02072111682976076</v>
+        <v>0.02277195230058985</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>134</v>
+      </c>
+      <c r="J57" t="n">
+        <v>325</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2477,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1528341344.416683</v>
+        <v>1483604067.409834</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1591118066411981</v>
+        <v>0.19529394054785</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03085610464650505</v>
+        <v>0.02564960291911422</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2506,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4335013414.2349</v>
+        <v>4426176083.563224</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09939744876198479</v>
+        <v>0.09432626615196518</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03250826484340289</v>
+        <v>0.03842113384156724</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>158</v>
+      </c>
+      <c r="J59" t="n">
+        <v>326</v>
+      </c>
+      <c r="K59" t="n">
+        <v>70.10542732279981</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2543,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2703349627.820324</v>
+        <v>3018251656.29441</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1790958665624474</v>
+        <v>0.1857502554086985</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02253606295166417</v>
+        <v>0.02570869644428929</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>57</v>
+      </c>
+      <c r="J60" t="n">
+        <v>325</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2578,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2318961945.731242</v>
+        <v>2105718243.27386</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1179987106888682</v>
+        <v>0.1482045777185789</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02710738362206837</v>
+        <v>0.02105256660736269</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1538379332.290758</v>
+        <v>1626535991.610138</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1661189429475505</v>
+        <v>0.1380401730190141</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03474108333076952</v>
+        <v>0.04937926962701568</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2648,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5310506749.886382</v>
+        <v>4312134858.023745</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06516363319646259</v>
+        <v>0.1039718268769005</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04644764672825866</v>
+        <v>0.04451030126085203</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>159</v>
+      </c>
+      <c r="J63" t="n">
+        <v>326</v>
+      </c>
+      <c r="K63" t="n">
+        <v>71.35482250255802</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2685,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4422330402.893187</v>
+        <v>3516342030.758852</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1917517470071222</v>
+        <v>0.1182761120884127</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0217870385015708</v>
+        <v>0.02247183756961086</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>161</v>
+      </c>
+      <c r="J64" t="n">
+        <v>327</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2720,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4054159426.610173</v>
+        <v>5345255000.141292</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1698073830161654</v>
+        <v>0.1456379125082376</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02791242409488648</v>
+        <v>0.03173810880058579</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>256</v>
+      </c>
+      <c r="J65" t="n">
+        <v>327</v>
+      </c>
+      <c r="K65" t="n">
+        <v>72.41927727830485</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2757,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4513445265.331843</v>
+        <v>5550454681.745703</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1439924136749891</v>
+        <v>0.1612977931928963</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03145082512719465</v>
+        <v>0.0324263295039683</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>161</v>
+      </c>
+      <c r="J66" t="n">
+        <v>327</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2798,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3328749992.447093</v>
+        <v>2151444753.660186</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09085029812434252</v>
+        <v>0.09652231321230013</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03679172303581585</v>
+        <v>0.03213716261733635</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2827,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4287437318.045877</v>
+        <v>4098938552.093003</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09696793112610749</v>
+        <v>0.1071122392838212</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03533939916201179</v>
+        <v>0.04838467809931644</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>177</v>
+      </c>
+      <c r="J68" t="n">
+        <v>326</v>
+      </c>
+      <c r="K68" t="n">
+        <v>71.55016906820919</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2314572543.040873</v>
+        <v>2108022727.64516</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1663599399340265</v>
+        <v>0.1743014466917288</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04921528339678866</v>
+        <v>0.03888896187117259</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2398101844.283996</v>
+        <v>2244793082.069685</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07029498154379892</v>
+        <v>0.07657129323424743</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04454524934597989</v>
+        <v>0.03323189904745374</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>49</v>
+      </c>
+      <c r="J70" t="n">
+        <v>323</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2934,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4191333263.63472</v>
+        <v>5574474540.827207</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1467227454963521</v>
+        <v>0.1330152538740491</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02192517337683649</v>
+        <v>0.03115774462124236</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>241</v>
+      </c>
+      <c r="J71" t="n">
+        <v>327</v>
+      </c>
+      <c r="K71" t="n">
+        <v>72.31932878635598</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2977,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2032173968.003888</v>
+        <v>1983949993.755531</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1070870019219015</v>
+        <v>0.09414442901434664</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0436977089205839</v>
+        <v>0.04647918032281683</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2797024227.25503</v>
+        <v>3488396904.213282</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06900382566690026</v>
+        <v>0.09063721244661878</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04641945488457872</v>
+        <v>0.04286637501674791</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,16 +3047,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2454187464.872041</v>
+        <v>3596605519.476356</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1225023526364754</v>
+        <v>0.1127399199132205</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03153766099696916</v>
+        <v>0.03065931986336904</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>86</v>
+      </c>
+      <c r="J74" t="n">
+        <v>326</v>
+      </c>
+      <c r="K74" t="n">
+        <v>66.61663777209954</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2182555618.520133</v>
+        <v>2133371106.683168</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1514805448932733</v>
+        <v>0.1642729771008309</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02544620070039807</v>
+        <v>0.03530598930384372</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3794633032.65665</v>
+        <v>3722416298.031249</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07600321192093952</v>
+        <v>0.08431459243707075</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02285224683924265</v>
+        <v>0.02742636931301081</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>154</v>
+      </c>
+      <c r="J76" t="n">
+        <v>327</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1959812313.467187</v>
+        <v>2179874407.105549</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1467611777804946</v>
+        <v>0.1427999169949093</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0266249707053802</v>
+        <v>0.03069058193277592</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3319179937.165712</v>
+        <v>3380439626.499285</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1343382420559008</v>
+        <v>0.1229670371251275</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04930955779433431</v>
+        <v>0.03990212130605734</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>161</v>
+      </c>
+      <c r="J78" t="n">
+        <v>326</v>
+      </c>
+      <c r="K78" t="n">
+        <v>50.49172062755378</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1243085636.872452</v>
+        <v>1726869251.910506</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1607301986781731</v>
+        <v>0.1565138639801765</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0363195369315706</v>
+        <v>0.02545616449720259</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4238444836.594473</v>
+        <v>3608151265.220445</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08749735467316828</v>
+        <v>0.1103314937475014</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03786124068398181</v>
+        <v>0.03233481322385559</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>160</v>
+      </c>
+      <c r="J80" t="n">
+        <v>326</v>
+      </c>
+      <c r="K80" t="n">
+        <v>43.6630895741499</v>
       </c>
     </row>
     <row r="81">
@@ -2698,17 +3298,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3148197961.224411</v>
+        <v>3637060719.888804</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1174484826146833</v>
+        <v>0.0862533730684755</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01992621130505551</v>
+        <v>0.03197346140925154</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>150</v>
+      </c>
+      <c r="J81" t="n">
+        <v>327</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3327,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3796937764.901378</v>
+        <v>4789905508.808314</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1789283896624189</v>
+        <v>0.2139949414529217</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02386768843269048</v>
+        <v>0.02549889186988141</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>235</v>
+      </c>
+      <c r="J82" t="n">
+        <v>327</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2234299273.828743</v>
+        <v>1626367684.781775</v>
       </c>
       <c r="F83" t="n">
-        <v>0.153018934862558</v>
+        <v>0.1128645234183806</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03196099656882381</v>
+        <v>0.03641168689988989</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1604970796.487143</v>
+        <v>1958128321.996692</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09550161220455103</v>
+        <v>0.1091859239873864</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04030505998695873</v>
+        <v>0.05121229857616677</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3438,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2896278426.064784</v>
+        <v>3303259266.765087</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1189627846581272</v>
+        <v>0.1153830297369527</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04121854968180444</v>
+        <v>0.0498196860898235</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>43</v>
+      </c>
+      <c r="J85" t="n">
+        <v>322</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1807339503.455572</v>
+        <v>1915726956.030268</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1652694369992617</v>
+        <v>0.1696409909784197</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02748287772618958</v>
+        <v>0.02025668858728689</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3508,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1376039373.50349</v>
+        <v>1242820361.827899</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1292544958397729</v>
+        <v>0.1434922860400135</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04247149080145973</v>
+        <v>0.04239894705629446</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3543,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3191583335.167445</v>
+        <v>2516505396.833644</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1643105123901419</v>
+        <v>0.1122796206482228</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03716878729707154</v>
+        <v>0.03304133109720434</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>45</v>
+      </c>
+      <c r="J88" t="n">
+        <v>321</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,22 +3572,31 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2142487965.323797</v>
+        <v>3007431353.90781</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1482907247507408</v>
+        <v>0.1164426295777328</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03309203965070268</v>
+        <v>0.04165169578387579</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>25</v>
+      </c>
+      <c r="J89" t="n">
+        <v>326</v>
+      </c>
+      <c r="K89" t="n">
+        <v>53.35521711191567</v>
       </c>
     </row>
     <row r="90">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1345940474.88015</v>
+        <v>2149940162.440822</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1128930561623046</v>
+        <v>0.1277431284370683</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03530356187664341</v>
+        <v>0.04112987399663249</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1786462096.188468</v>
+        <v>1930127390.243891</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1554344525410354</v>
+        <v>0.1783368138707251</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04999872130971883</v>
+        <v>0.04569166882150134</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2803358360.569762</v>
+        <v>2751193404.076732</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07732170203671589</v>
+        <v>0.08856720847622478</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03971865432565248</v>
+        <v>0.03259133652354897</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4349891737.0322</v>
+        <v>4596174598.622536</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1188290082449344</v>
+        <v>0.1195751773037075</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04669351241797377</v>
+        <v>0.04199971170069874</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>149</v>
+      </c>
+      <c r="J93" t="n">
+        <v>326</v>
+      </c>
+      <c r="K93" t="n">
+        <v>72.00574606312961</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2199057363.272924</v>
+        <v>2507557494.950989</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1299644457240086</v>
+        <v>0.125808144185546</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0378111530634302</v>
+        <v>0.04214593934731979</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2808073350.640678</v>
+        <v>2300715721.355545</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1330053976929279</v>
+        <v>0.129395038747561</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05188299845581972</v>
+        <v>0.0496485386244613</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2208552687.04896</v>
+        <v>2284322567.411073</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1291190814956541</v>
+        <v>0.1294046865190501</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04523115293238737</v>
+        <v>0.02892200791707642</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4904728403.645967</v>
+        <v>4230742246.036716</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1317636153488955</v>
+        <v>0.1276488183029701</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02212201060362618</v>
+        <v>0.02233441547690137</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>167</v>
+      </c>
+      <c r="J97" t="n">
+        <v>327</v>
+      </c>
+      <c r="K97" t="n">
+        <v>72.70790284702494</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2568606919.10261</v>
+        <v>3460032020.701966</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1012989360494989</v>
+        <v>0.1246775609256077</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02516561449710832</v>
+        <v>0.02272282941571001</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>81</v>
+      </c>
+      <c r="J98" t="n">
+        <v>326</v>
+      </c>
+      <c r="K98" t="n">
+        <v>54.26953589766116</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2646858929.945034</v>
+        <v>2184317711.725456</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1461521648580209</v>
+        <v>0.1455967595912938</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03099976128089845</v>
+        <v>0.02593973450239677</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4781193563.095304</v>
+        <v>4560088992.486382</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1754494653278325</v>
+        <v>0.1660348791198338</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01756651797239143</v>
+        <v>0.01789824892358377</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>145</v>
+      </c>
+      <c r="J100" t="n">
+        <v>327</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3393217451.81906</v>
+        <v>3136944931.924411</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1836902855136629</v>
+        <v>0.2100131188927086</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04001486646906007</v>
+        <v>0.04293574600666734</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>29</v>
+      </c>
+      <c r="J101" t="n">
+        <v>310</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
